--- a/doc/ws-scim-issue-management.xlsx
+++ b/doc/ws-scim-issue-management.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="420" windowWidth="33195" windowHeight="12945"/>
+    <workbookView xWindow="720" yWindow="480" windowWidth="33195" windowHeight="12885" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="이슈관리" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="이슈" sheetId="2" r:id="rId1"/>
+    <sheet name="현대백화점" sheetId="3" r:id="rId2"/>
+    <sheet name="개발 이슈" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="139">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +192,398 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 데이터 모두 삭제시, 기본 관리자 필요함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발생일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 스키마에 기본 관리자 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 데이터 모두 삭제시, 초기 시스템 추가시 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 관리 페이지에, 추가,편집,삭제 함수 누락됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 정책 클래스, 최종 실행일자 null 일경우 오류 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 현황 페이지 페이지네이션 적용안됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정정책 서버별 한글 인코딩 문제 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 현황 페이지 그래프 연동 안됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 기동 환경, 한글 처리 않됨 (웹-&gt;서버 한글 깨짐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄러 상세 이력 다이얼로그 연결안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄러 상세 이력-상세 데이터 변경 내용 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 추가-취소후 systemId 찾지 못하여 에러 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 배포-사용자,그룹에 대한 벌크 리퀘스트 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시스템 정보 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시스템 정보 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 정책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 정책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄러 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSO 계정 배포 정책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSO 계정 분석 정책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 매핑 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가져오기 매핑 함수 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이전트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이전트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정배포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active-disable init 역변환 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">생성일, 변경일 current time 적용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 언어 설정 변경 : LANG=KR_UTF8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄러 테이블에 ENCODE 필드 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 펜널 수정 가능-&gt;불가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 다이얼 로그 시스템 ID (신규:수정, 삭제,변경-불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 펜널 text 클릭시 systemId 못 찾음. 디버그 오류 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 생성시 스케줄러 정보 펜널 표시 (빈 값으로 설정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 현황 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 현황 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 계정 관리 데이터 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 리스트 페이지네이션 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 리스트 검색 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 현황 이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 값 상세 내용 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 상세 내용 펜널 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이전트 환경 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이전트 환경 펜널 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이전트 스키마 펜널 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼 속성 인터페이스 (ID,NAME,TYPE,DEFAULT,INDEX,DESC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이전트 상세 펜널 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">속성 매핑 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">속성 매핑 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">속성 매핑 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스키마 매핑 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 매핑 편집 다이얼로그 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 매핑 편집 다이얼로구 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터  매핑 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS-IS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-BE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSO 서버에 에이전트 설치 및 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 업무 시스템의 서버에 에이전트 설치 및 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 방화벽 정책 재 설정
+   - SSO/IM 서버 -&gt; 각 업무 서버 : 취소
+   - SSO/IM 서버 -&gt; 각 업무 DB : 신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기존 업무 서버 영향도 발생
+   - IM 에이전트 구동으로 인한 업무 서버의 자원 소모
+2. IM 업무 관리 다원화
+   - 각 시스템 담당자가 IM 에이전트를 추가로 관리 해야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기존 업무 서버 영향도 최소화
+   - IM 에이전트를 SSO 서버에 설치하여 업무 서버에 영향이 없음.
+   - 
+2. IM 업무 관리 일원화
+   - IM 서버 담당자가 에이전트까지 관리
+3. 프로젝트 기간 단축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 변경에 따른 추가 작업 
+   - 방화벽 정책 변경
+   - 매뉴얼 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +591,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +616,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +646,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -261,13 +682,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +732,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,10 +1082,761 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J34"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="54.625" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="36.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4">
+        <v>43602</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8">
+        <v>43602</v>
+      </c>
+      <c r="H3" s="8">
+        <v>43605</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4">
+        <v>43602</v>
+      </c>
+      <c r="H4" s="4">
+        <v>43605</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4">
+        <v>43602</v>
+      </c>
+      <c r="H5" s="4">
+        <v>43605</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4">
+        <v>43602</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4">
+        <v>43602</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4">
+        <v>43602</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8">
+        <v>43602</v>
+      </c>
+      <c r="H13" s="8">
+        <v>43605</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4">
+        <v>43602</v>
+      </c>
+      <c r="H17" s="4">
+        <v>43605</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4">
+        <v>43602</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4">
+        <v>43602</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4">
+        <v>43602</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="4">
+        <v>43602</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+  </sheetData>
+  <sortState ref="B2:J28">
+    <sortCondition ref="B2:B28"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -938,27 +2184,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D4:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.875" customWidth="1"/>
+    <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:F8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
